--- a/Registers/Registers.xlsx
+++ b/Registers/Registers.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20235600\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/q_swaan_tue_nl/Documents/EngD/Courses/Block 2/AutoRef Project/Project Management Plan/registers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334C57AB-5A16-448D-B46E-2598050AB312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamRegister" sheetId="1" r:id="rId1"/>
+    <sheet name="StakeholderRegister" sheetId="2" r:id="rId2"/>
+    <sheet name="DecisionRegister" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Quinten</t>
   </si>
@@ -81,13 +83,160 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Sub organisation</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest </t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>van de Molengraft</t>
+  </si>
+  <si>
+    <t>m.j.g.v.d.molengraft@tue.nl</t>
+  </si>
+  <si>
+    <t>TU/e</t>
+  </si>
+  <si>
+    <t>Tech United</t>
+  </si>
+  <si>
+    <t>Project Sponsor and Technical Consultant</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Erjen</t>
+  </si>
+  <si>
+    <t>Lefeber</t>
+  </si>
+  <si>
+    <t>a.a.j.lefeber@tue.nl</t>
+  </si>
+  <si>
+    <t>Project Sponsor</t>
+  </si>
+  <si>
+    <t>techunited@tue.nl</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>RoboCup</t>
+  </si>
+  <si>
+    <t>Middle Sized League</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Beumer</t>
+  </si>
+  <si>
+    <t>r.m.beuner@tue.nl</t>
+  </si>
+  <si>
+    <t>Technical Consultant</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Kolodkvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i.kolodko@tue.nl </t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Hameeteman</t>
+  </si>
+  <si>
+    <t>d.m.j.hameeteman@tue.nl</t>
+  </si>
+  <si>
+    <t>Referee</t>
+  </si>
+  <si>
+    <t>User of System</t>
+  </si>
+  <si>
+    <t>User of System and Rule Maker</t>
+  </si>
+  <si>
+    <t>Decision Details</t>
+  </si>
+  <si>
+    <t>Proposed Date</t>
+  </si>
+  <si>
+    <t>Proposed By</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Approved By</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Set the project scope.</t>
+  </si>
+  <si>
+    <t>Set the scope of the project to only focus on two rules: Illegal attack and Defense (RC-12.3.4 &amp; RC-12.3.5) and who touched the ball the last time (FL-15, FL-16 and FL-17).</t>
+  </si>
+  <si>
+    <t>Team (majority vote) and René ("if you as a team agree, I agree")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +244,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +279,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -260,10 +441,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,11 +484,112 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -316,6 +600,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}" name="TBL_Stakeholders3" displayName="TBL_Stakeholders3" ref="A1:I8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:I8" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8262E377-5AD0-4806-AEA4-D989E075BF51}" name="ID" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4E989BD6-69A5-46B0-AEFC-3675FCCF337B}" name="First Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C9FD28AD-122D-46E9-BDED-3C2EAE6C15F2}" name="Last Name" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{5323E571-C139-457E-BA4C-C5A7C8719693}" name="E-mail" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{30442822-CBD9-4EAC-A865-F615CF48A5FD}" name="Organization" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{42C32D8F-8E40-41CC-BEB5-1C8CD177DE61}" name="Sub organisation" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{EF1EE46E-681B-482E-8B76-573B012438DC}" name="Role" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{91D6887F-DD93-4853-BA03-090D7545C06F}" name="Power" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{22CD2A3B-63B6-429F-B971-F9F7ED61ADED}" name="Interest " dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}" name="Table2" displayName="Table2" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{66FC4F8D-6295-424C-869C-2B9058DD977F}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{6D20D426-DFB9-40A1-AA81-1DF9484B2BE6}" name="Decision Details"/>
+    <tableColumn id="3" xr3:uid="{7E5ECCAC-1C8A-4EA7-A557-ED1F54A3465A}" name="Impact"/>
+    <tableColumn id="4" xr3:uid="{A419E43D-B156-42BB-AFDD-E3F449BF8F38}" name="Proposed Date" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C8D251D9-601F-47C6-828D-FC51DC6A3B5D}" name="Proposed By"/>
+    <tableColumn id="6" xr3:uid="{DD72FD92-29BB-4EB6-8333-28701F0C8922}" name="Status" dataCellStyle="Good"/>
+    <tableColumn id="7" xr3:uid="{6481DA66-D975-457B-8755-DADBF5ACC01F}" name="Approved By"/>
+    <tableColumn id="8" xr3:uid="{78CC93BB-30A2-45E5-B7AD-48856969CDCE}" name="Date" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,21 +936,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB6F84-222A-4D65-9416-E03B786E72C7}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -651,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -665,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -679,7 +998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -693,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -707,7 +1026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -719,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -731,7 +1050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -743,7 +1062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -758,4 +1077,371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C2D6A1-D6F6-48E4-99E3-5A21FE025376}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H8">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",H1)))</formula>
+    </cfRule>
+    <cfRule type="uniqueValues" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H8">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",H2)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I8">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{684FB5AF-27C5-428C-A89B-B85CF8D3EB7F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{DB3EA3BF-7551-4316-B15E-D04DA803A077}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{7C55531A-97F3-410D-A8AB-35F8CD4FF3EF}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{CB8A4DA8-00C8-406A-9628-F2F38908B2EE}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{4AB56D05-AEE8-4F70-99B9-C3AFDEFE639A}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{1E08E4C4-5926-4DD3-92B6-346B22D885D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450ADDE-5538-4414-B9B5-6B9E61F29BE6}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="18">
+        <v>45341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="18">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Registers/Registers.xlsx
+++ b/Registers/Registers.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/q_swaan_tue_nl/Documents/EngD/Courses/Block 2/AutoRef Project/Project Management Plan/registers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DB919F-66D9-4B32-A0FC-F57AE5F5DE0E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamRegister" sheetId="1" r:id="rId1"/>
     <sheet name="StakeholderRegister" sheetId="2" r:id="rId2"/>
     <sheet name="DecisionRegister" sheetId="3" r:id="rId3"/>
+    <sheet name="ProductBacklog" sheetId="4" r:id="rId4"/>
+    <sheet name="RiskRegister" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
   <si>
     <t>Quinten</t>
   </si>
@@ -230,13 +232,413 @@
   </si>
   <si>
     <t>Team (majority vote) and René ("if you as a team agree, I agree")</t>
+  </si>
+  <si>
+    <t>Change of project scope</t>
+  </si>
+  <si>
+    <t>Not approved</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to know the risks of the project, so that I better understand the status of the project.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to know the deliverables of this project, so that I know what I get where I paid for.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>As a developer, I want to know the functional requirements of the system, so that I can set up the specifications</t>
+  </si>
+  <si>
+    <t>As a developer, I want to know the specifications of the system, so that I know which solutions fit into that.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to know how to validate the system, so that I can perform the validation tests.</t>
+  </si>
+  <si>
+    <t>As a developer, I want a feasibility check, so that I know which solution fits best to the specifications.</t>
+  </si>
+  <si>
+    <t>As a referee, I want to know which decision the AutoRef system decided so that it can support me in my decisions.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to know when the ball is out of play so that I can decide who gets FL-15, 16 and 17.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to know who applied a force to the ball so that I know who touched the ball the last time.</t>
+  </si>
+  <si>
+    <t>Set the scope of the project to only focus on one rule: who touched the ball the last time after the ball is out of play and communicate this to the referee.</t>
+  </si>
+  <si>
+    <t>Process Step / component / function</t>
+  </si>
+  <si>
+    <t>Potential Failure Mode</t>
+  </si>
+  <si>
+    <t>Potential Failure Effect</t>
+  </si>
+  <si>
+    <r>
+      <t>Severity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Potential Causes</t>
+  </si>
+  <si>
+    <r>
+      <t>Occurance</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Current Controls</t>
+  </si>
+  <si>
+    <r>
+      <t>Detection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RPN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>RPN+</t>
+  </si>
+  <si>
+    <t>Action Recommended</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>What is the process step or component or function?</t>
+  </si>
+  <si>
+    <t>In what ways can the process step / component / function go wrong or fail?</t>
+  </si>
+  <si>
+    <t>What is the impact on the end user if the failure mode is not prevented or corrected?</t>
+  </si>
+  <si>
+    <t>How severe is the effect on the end user?</t>
+  </si>
+  <si>
+    <t>What causes the process step or component or function to go wrong (i.e., how could the failure mode occur)?</t>
+  </si>
+  <si>
+    <t>How frequencly is the cause likely to occur?</t>
+  </si>
+  <si>
+    <t>What are the existing controls that either prevent the failure mode from occuring or detect it if it should occur?</t>
+  </si>
+  <si>
+    <t>How probable is detection of the failure mode or its cause</t>
+  </si>
+  <si>
+    <t>Risk priority number calculated as SEV x OCC</t>
+  </si>
+  <si>
+    <t>RPN with DET</t>
+  </si>
+  <si>
+    <t>What are the actions for reducting the occurance of the cause or for improving its detection? Provide actions on all high RPNs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Severity: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Severity of impact of failure event. It is scored on a scale of 1 to 5. A high score is assigned to high-impact events while a low score is assigned to low-impact events.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Occurance or Probability: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frequency of occurance of failure event. It is scored on a scale of 1 to 5. A high score is assigned to frequently occuring events while events with low occuraence are assigned a low score.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Detection: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ability of process control to detect the occurance of failure events. It is scored on a scale of 1 to 5. A failure event that can be easilty detected by the process control is assigned a low score while a high score is assigned to an inconspicuous event.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Risk Priority Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The overall risk score of an event or failure. It is calculated by multiplying the scores for severity, occurance and detection. An event with a high RPN demands immediate attention while events with lower RPNs are less risky.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sensors have too low accuracy</t>
+  </si>
+  <si>
+    <t>Wrong decisions</t>
+  </si>
+  <si>
+    <t>Set specifications</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>Decisions are biased to a certain team</t>
+  </si>
+  <si>
+    <t>Not tested on other teams</t>
+  </si>
+  <si>
+    <t>Make solution independent on specific TURTLEs</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>No trust from referees or audience in deicison making</t>
+  </si>
+  <si>
+    <t>System is not used</t>
+  </si>
+  <si>
+    <t>No proof</t>
+  </si>
+  <si>
+    <t>Need proof of decions made</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Wrong decisions in other fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong measurements because of external factors. </t>
+  </si>
+  <si>
+    <t>Different lightning.</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Team hack the system</t>
+  </si>
+  <si>
+    <t>Gives wrong decisions every time</t>
+  </si>
+  <si>
+    <t>Hacking</t>
+  </si>
+  <si>
+    <t>Edge cases</t>
+  </si>
+  <si>
+    <t>Not identifying all edge cases</t>
+  </si>
+  <si>
+    <t>Tested on real match</t>
+  </si>
+  <si>
+    <t>Talking with referees</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Team knowledge too low</t>
+  </si>
+  <si>
+    <t>Implementation takes too long</t>
+  </si>
+  <si>
+    <t>Whole project is delayed</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
+    <t>Not working well together</t>
+  </si>
+  <si>
+    <t>Project delayed. Not making right decisions.</t>
+  </si>
+  <si>
+    <t>Implementing a communication plan in PMP.</t>
+  </si>
+  <si>
+    <t>Stubborness, ego, indecisiveness, different backgrounds and not communicating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensing </t>
+  </si>
+  <si>
+    <t>Budget limitations, availability of hardware or wrong assumptions</t>
+  </si>
+  <si>
+    <t>Use good sources for assumptions. Create a decision matrix for choosing solution space and hardware.</t>
+  </si>
+  <si>
+    <t>Validation and verification</t>
+  </si>
+  <si>
+    <t>We can not test the system due to other people using the field.</t>
+  </si>
+  <si>
+    <t>Project delayed.</t>
+  </si>
+  <si>
+    <t>Not planning, something else gets in the way of testing. Not the right equipment to verify.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +661,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +715,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -446,7 +877,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,19 +932,20 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -536,25 +968,13 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -602,36 +1022,54 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}" name="TBL_Stakeholders3" displayName="TBL_Stakeholders3" ref="A1:I8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}" name="TBL_Stakeholders3" displayName="TBL_Stakeholders3" ref="A1:I8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I8" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8262E377-5AD0-4806-AEA4-D989E075BF51}" name="ID" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{4E989BD6-69A5-46B0-AEFC-3675FCCF337B}" name="First Name" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C9FD28AD-122D-46E9-BDED-3C2EAE6C15F2}" name="Last Name" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{5323E571-C139-457E-BA4C-C5A7C8719693}" name="E-mail" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{30442822-CBD9-4EAC-A865-F615CF48A5FD}" name="Organization" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{42C32D8F-8E40-41CC-BEB5-1C8CD177DE61}" name="Sub organisation" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{EF1EE46E-681B-482E-8B76-573B012438DC}" name="Role" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{91D6887F-DD93-4853-BA03-090D7545C06F}" name="Power" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{22CD2A3B-63B6-429F-B971-F9F7ED61ADED}" name="Interest " dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8262E377-5AD0-4806-AEA4-D989E075BF51}" name="ID" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4E989BD6-69A5-46B0-AEFC-3675FCCF337B}" name="First Name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C9FD28AD-122D-46E9-BDED-3C2EAE6C15F2}" name="Last Name" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{5323E571-C139-457E-BA4C-C5A7C8719693}" name="E-mail" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{30442822-CBD9-4EAC-A865-F615CF48A5FD}" name="Organization" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{42C32D8F-8E40-41CC-BEB5-1C8CD177DE61}" name="Sub organisation" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{EF1EE46E-681B-482E-8B76-573B012438DC}" name="Role" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{91D6887F-DD93-4853-BA03-090D7545C06F}" name="Power" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{22CD2A3B-63B6-429F-B971-F9F7ED61ADED}" name="Interest " dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}" name="Table2" displayName="Table2" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}" name="Table2" displayName="Table2" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{66FC4F8D-6295-424C-869C-2B9058DD977F}" name="ID"/>
     <tableColumn id="2" xr3:uid="{6D20D426-DFB9-40A1-AA81-1DF9484B2BE6}" name="Decision Details"/>
     <tableColumn id="3" xr3:uid="{7E5ECCAC-1C8A-4EA7-A557-ED1F54A3465A}" name="Impact"/>
-    <tableColumn id="4" xr3:uid="{A419E43D-B156-42BB-AFDD-E3F449BF8F38}" name="Proposed Date" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A419E43D-B156-42BB-AFDD-E3F449BF8F38}" name="Proposed Date" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{C8D251D9-601F-47C6-828D-FC51DC6A3B5D}" name="Proposed By"/>
     <tableColumn id="6" xr3:uid="{DD72FD92-29BB-4EB6-8333-28701F0C8922}" name="Status" dataCellStyle="Good"/>
     <tableColumn id="7" xr3:uid="{6481DA66-D975-457B-8755-DADBF5ACC01F}" name="Approved By"/>
-    <tableColumn id="8" xr3:uid="{78CC93BB-30A2-45E5-B7AD-48856969CDCE}" name="Date" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{78CC93BB-30A2-45E5-B7AD-48856969CDCE}" name="Date" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B17DC9B-72B5-439C-A151-D098655B6B09}" name="Table24" displayName="Table24" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{1B17DC9B-72B5-439C-A151-D098655B6B09}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4B987778-F9F2-4382-8374-AD51F099E988}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{20A3CBC3-CC25-4435-80A6-D3C515865B02}" name="User story"/>
+    <tableColumn id="3" xr3:uid="{FDFC82BA-F7F5-4DC2-8460-AA38739D716D}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{8F44A72E-EEB3-4434-9067-1B32E75F72A4}" name="Priority" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8F7228CD-5171-45D8-B4FA-9598E8ECF118}" name="Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1322,13 +1760,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H8">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H1)))</formula>
     </cfRule>
     <cfRule type="uniqueValues" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H8">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1343,7 +1781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I8">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1366,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450ADDE-5538-4414-B9B5-6B9E61F29BE6}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1873,24 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="18"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="18">
+        <v>45345</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="H3" s="18"/>
     </row>
   </sheetData>
@@ -1444,4 +1899,836 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC16753D-2AC8-4AD4-94EA-F848FD7D8A7A}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="103.140625" customWidth="1"/>
+    <col min="3" max="8" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3B7771-FB19-4EC4-8B0E-82C521ED06D2}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="53.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="21">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21">
+        <f>E3*G3</f>
+        <v>12</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="21">
+        <v>4</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21">
+        <f t="shared" ref="J4:J22" si="0">E4*G4</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="21">
+        <v>4</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="21">
+        <v>4</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="21">
+        <v>3</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="21">
+        <v>3</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Registers/Registers.xlsx
+++ b/Registers/Registers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/q_swaan_tue_nl/Documents/EngD/Courses/Block 2/AutoRef Project/Project Management Plan/registers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DB919F-66D9-4B32-A0FC-F57AE5F5DE0E}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B1B999-CC29-49D9-BF11-9E6153EF6BF6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
   <si>
     <t>Quinten</t>
   </si>
@@ -632,6 +632,21 @@
   </si>
   <si>
     <t>Not planning, something else gets in the way of testing. Not the right equipment to verify.</t>
+  </si>
+  <si>
+    <t>2 Challenging tasks</t>
+  </si>
+  <si>
+    <t>Too much work, one of the two could not work out</t>
+  </si>
+  <si>
+    <t>Final deliverable not reached</t>
+  </si>
+  <si>
+    <t>Can not use previous years' work</t>
+  </si>
+  <si>
+    <t>Work in parallell, make subteams</t>
   </si>
 </sst>
 </file>
@@ -1076,9 +1091,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1116,7 +1131,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1222,7 +1237,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1364,7 +1379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2093,7 +2108,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,23 +2515,39 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12" s="21">
         <v>0</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="21" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>

--- a/Registers/Registers.xlsx
+++ b/Registers/Registers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/q_swaan_tue_nl/Documents/EngD/Courses/Block 2/AutoRef Project/Project Management Plan/registers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B1B999-CC29-49D9-BF11-9E6153EF6BF6}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6FB4832-8297-4B7C-92C1-877AF2AE7A77}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamRegister" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="156">
   <si>
     <t>Quinten</t>
   </si>
@@ -647,6 +647,15 @@
   </si>
   <si>
     <t>Work in parallell, make subteams</t>
+  </si>
+  <si>
+    <t>Team (majority vote), René and Erjen</t>
+  </si>
+  <si>
+    <t>Use OptiTrack to sense the match</t>
+  </si>
+  <si>
+    <t>What data the solutions uses</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1069,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}" name="Table2" displayName="Table2" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}" name="Table2" displayName="Table2" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{66FC4F8D-6295-424C-869C-2B9058DD977F}" name="ID"/>
     <tableColumn id="2" xr3:uid="{6D20D426-DFB9-40A1-AA81-1DF9484B2BE6}" name="Decision Details"/>
@@ -1817,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450ADDE-5538-4414-B9B5-6B9E61F29BE6}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,9 +1913,35 @@
         <v>60</v>
       </c>
       <c r="F3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="18">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="18">
+        <v>45355</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3B7771-FB19-4EC4-8B0E-82C521ED06D2}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Registers/Registers.xlsx
+++ b/Registers/Registers.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/q_swaan_tue_nl/Documents/EngD/Courses/Block 2/AutoRef Project/Project Management Plan/registers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6FB4832-8297-4B7C-92C1-877AF2AE7A77}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{9739F716-7D13-4523-9A75-4593BACA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{153B3EFD-4CD3-417D-8E9C-282EDBC48FD2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C6753684-D026-407D-B830-4D377D196A62}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamRegister" sheetId="1" r:id="rId1"/>
     <sheet name="StakeholderRegister" sheetId="2" r:id="rId2"/>
     <sheet name="DecisionRegister" sheetId="3" r:id="rId3"/>
-    <sheet name="ProductBacklog" sheetId="4" r:id="rId4"/>
-    <sheet name="RiskRegister" sheetId="6" r:id="rId5"/>
+    <sheet name="RiskRegister" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>Quinten</t>
   </si>
@@ -235,51 +234,6 @@
   </si>
   <si>
     <t>Change of project scope</t>
-  </si>
-  <si>
-    <t>Not approved</t>
-  </si>
-  <si>
-    <t>User story</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>As a stakeholder, I want to know the risks of the project, so that I better understand the status of the project.</t>
-  </si>
-  <si>
-    <t>As a stakeholder, I want to know the deliverables of this project, so that I know what I get where I paid for.</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>As a developer, I want to know the functional requirements of the system, so that I can set up the specifications</t>
-  </si>
-  <si>
-    <t>As a developer, I want to know the specifications of the system, so that I know which solutions fit into that.</t>
-  </si>
-  <si>
-    <t>As a developer, I want to know how to validate the system, so that I can perform the validation tests.</t>
-  </si>
-  <si>
-    <t>As a developer, I want a feasibility check, so that I know which solution fits best to the specifications.</t>
-  </si>
-  <si>
-    <t>As a referee, I want to know which decision the AutoRef system decided so that it can support me in my decisions.</t>
-  </si>
-  <si>
-    <t>As a developer, I want to know when the ball is out of play so that I can decide who gets FL-15, 16 and 17.</t>
-  </si>
-  <si>
-    <t>As a developer, I want to know who applied a force to the ball so that I know who touched the ball the last time.</t>
   </si>
   <si>
     <t>Set the scope of the project to only focus on one rule: who touched the ball the last time after the ball is out of play and communicate this to the referee.</t>
@@ -550,30 +504,6 @@
     <t>Need proof of decions made</t>
   </si>
   <si>
-    <t>Robustness</t>
-  </si>
-  <si>
-    <t>Wrong decisions in other fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrong measurements because of external factors. </t>
-  </si>
-  <si>
-    <t>Different lightning.</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Team hack the system</t>
-  </si>
-  <si>
-    <t>Gives wrong decisions every time</t>
-  </si>
-  <si>
-    <t>Hacking</t>
-  </si>
-  <si>
     <t>Edge cases</t>
   </si>
   <si>
@@ -586,33 +516,6 @@
     <t>Talking with referees</t>
   </si>
   <si>
-    <t>Implementation</t>
-  </si>
-  <si>
-    <t>Team knowledge too low</t>
-  </si>
-  <si>
-    <t>Implementation takes too long</t>
-  </si>
-  <si>
-    <t>Whole project is delayed</t>
-  </si>
-  <si>
-    <t>Teamwork</t>
-  </si>
-  <si>
-    <t>Not working well together</t>
-  </si>
-  <si>
-    <t>Project delayed. Not making right decisions.</t>
-  </si>
-  <si>
-    <t>Implementing a communication plan in PMP.</t>
-  </si>
-  <si>
-    <t>Stubborness, ego, indecisiveness, different backgrounds and not communicating</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sensing </t>
   </si>
   <si>
@@ -634,21 +537,6 @@
     <t>Not planning, something else gets in the way of testing. Not the right equipment to verify.</t>
   </si>
   <si>
-    <t>2 Challenging tasks</t>
-  </si>
-  <si>
-    <t>Too much work, one of the two could not work out</t>
-  </si>
-  <si>
-    <t>Final deliverable not reached</t>
-  </si>
-  <si>
-    <t>Can not use previous years' work</t>
-  </si>
-  <si>
-    <t>Work in parallell, make subteams</t>
-  </si>
-  <si>
     <t>Team (majority vote), René and Erjen</t>
   </si>
   <si>
@@ -656,6 +544,27 @@
   </si>
   <si>
     <t>What data the solutions uses</t>
+  </si>
+  <si>
+    <t>Team (unanimous)</t>
+  </si>
+  <si>
+    <t>Removed the RefBox communication from system context</t>
+  </si>
+  <si>
+    <t>Communication will not be developed. Will be replaced by UI</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Little time to test integration due to other people using the OptiTrack system</t>
+  </si>
+  <si>
+    <t>Not planning, overruled by someone else.</t>
+  </si>
+  <si>
+    <t>Planning OptiTrack testing</t>
   </si>
 </sst>
 </file>
@@ -969,7 +878,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -990,9 +899,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1051,49 +957,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}" name="TBL_Stakeholders3" displayName="TBL_Stakeholders3" ref="A1:I8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}" name="TBL_Stakeholders3" displayName="TBL_Stakeholders3" ref="A1:I8" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:I8" xr:uid="{83CA3971-97A2-4973-8131-1F5976427226}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8262E377-5AD0-4806-AEA4-D989E075BF51}" name="ID" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{4E989BD6-69A5-46B0-AEFC-3675FCCF337B}" name="First Name" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{C9FD28AD-122D-46E9-BDED-3C2EAE6C15F2}" name="Last Name" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{5323E571-C139-457E-BA4C-C5A7C8719693}" name="E-mail" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{30442822-CBD9-4EAC-A865-F615CF48A5FD}" name="Organization" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{42C32D8F-8E40-41CC-BEB5-1C8CD177DE61}" name="Sub organisation" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{EF1EE46E-681B-482E-8B76-573B012438DC}" name="Role" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{91D6887F-DD93-4853-BA03-090D7545C06F}" name="Power" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{22CD2A3B-63B6-429F-B971-F9F7ED61ADED}" name="Interest " dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8262E377-5AD0-4806-AEA4-D989E075BF51}" name="ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4E989BD6-69A5-46B0-AEFC-3675FCCF337B}" name="First Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C9FD28AD-122D-46E9-BDED-3C2EAE6C15F2}" name="Last Name" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{5323E571-C139-457E-BA4C-C5A7C8719693}" name="E-mail" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{30442822-CBD9-4EAC-A865-F615CF48A5FD}" name="Organization" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{42C32D8F-8E40-41CC-BEB5-1C8CD177DE61}" name="Sub organisation" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{EF1EE46E-681B-482E-8B76-573B012438DC}" name="Role" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{91D6887F-DD93-4853-BA03-090D7545C06F}" name="Power" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{22CD2A3B-63B6-429F-B971-F9F7ED61ADED}" name="Interest " dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}" name="Table2" displayName="Table2" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}" name="Table2" displayName="Table2" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{DF252EAA-35BC-4812-9D2A-FE810FD7EEBF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{66FC4F8D-6295-424C-869C-2B9058DD977F}" name="ID"/>
     <tableColumn id="2" xr3:uid="{6D20D426-DFB9-40A1-AA81-1DF9484B2BE6}" name="Decision Details"/>
     <tableColumn id="3" xr3:uid="{7E5ECCAC-1C8A-4EA7-A557-ED1F54A3465A}" name="Impact"/>
-    <tableColumn id="4" xr3:uid="{A419E43D-B156-42BB-AFDD-E3F449BF8F38}" name="Proposed Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A419E43D-B156-42BB-AFDD-E3F449BF8F38}" name="Proposed Date" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C8D251D9-601F-47C6-828D-FC51DC6A3B5D}" name="Proposed By"/>
     <tableColumn id="6" xr3:uid="{DD72FD92-29BB-4EB6-8333-28701F0C8922}" name="Status" dataCellStyle="Good"/>
     <tableColumn id="7" xr3:uid="{6481DA66-D975-457B-8755-DADBF5ACC01F}" name="Approved By"/>
-    <tableColumn id="8" xr3:uid="{78CC93BB-30A2-45E5-B7AD-48856969CDCE}" name="Date" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B17DC9B-72B5-439C-A151-D098655B6B09}" name="Table24" displayName="Table24" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{1B17DC9B-72B5-439C-A151-D098655B6B09}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4B987778-F9F2-4382-8374-AD51F099E988}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{20A3CBC3-CC25-4435-80A6-D3C515865B02}" name="User story"/>
-    <tableColumn id="3" xr3:uid="{FDFC82BA-F7F5-4DC2-8460-AA38739D716D}" name="Size"/>
-    <tableColumn id="4" xr3:uid="{8F44A72E-EEB3-4434-9067-1B32E75F72A4}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8F7228CD-5171-45D8-B4FA-9598E8ECF118}" name="Sprint"/>
+    <tableColumn id="8" xr3:uid="{78CC93BB-30A2-45E5-B7AD-48856969CDCE}" name="Date" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1546,7 +1438,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,20 +1718,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450ADDE-5538-4414-B9B5-6B9E61F29BE6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
@@ -1901,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -1916,7 +1808,7 @@
         <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="H3" s="18">
         <v>45353</v>
@@ -1927,10 +1819,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D4" s="18">
         <v>45355</v>
@@ -1939,9 +1831,40 @@
         <v>60</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="18">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="18">
+        <v>45364</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="18">
+        <v>45365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,198 +1875,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC16753D-2AC8-4AD4-94EA-F848FD7D8A7A}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="103.140625" customWidth="1"/>
-    <col min="3" max="8" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3B7771-FB19-4EC4-8B0E-82C521ED06D2}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,75 +1903,75 @@
         <v>15</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2243,25 +1979,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E3" s="21">
         <v>4</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21">
@@ -2272,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2280,19 +2016,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E4" s="21">
         <v>4</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G4" s="21">
         <v>1</v>
@@ -2307,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2315,19 +2051,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E5" s="21">
         <v>4</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G5" s="21">
         <v>2</v>
@@ -2342,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2350,91 +2086,95 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E6" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="J6:J7" si="1">E6*G6</f>
+        <v>4</v>
       </c>
       <c r="K6" s="21">
         <v>0</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="21" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E7" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G7" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>E7*G7</f>
+        <v>9</v>
       </c>
       <c r="K7" s="21">
         <v>0</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="21" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E8" s="21">
         <v>2</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G8" s="21">
         <v>4</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21">
@@ -2445,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2453,19 +2193,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E9" s="21">
         <v>3</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G9" s="21">
         <v>3</v>
@@ -2473,7 +2213,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21">
-        <f t="shared" si="0"/>
+        <f>E9*G9</f>
         <v>9</v>
       </c>
       <c r="K9" s="21">
@@ -2482,32 +2222,18 @@
       <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="21">
-        <v>3</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="21">
-        <v>3</v>
-      </c>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="J10:J11" si="2">E10*G10</f>
+        <v>0</v>
       </c>
       <c r="K10" s="21">
         <v>0</v>
@@ -2515,74 +2241,42 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="21">
-        <v>3</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="21">
-        <v>2</v>
-      </c>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K11" s="21">
         <v>0</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="21">
-        <v>3</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="21">
-        <v>2</v>
-      </c>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="J12" si="3">E12*G12</f>
+        <v>0</v>
       </c>
       <c r="K12" s="21">
         <v>0</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>152</v>
-      </c>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
@@ -2776,22 +2470,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
